--- a/Testdata/TC_Unit Manipulation_07.xlsx
+++ b/Testdata/TC_Unit Manipulation_07.xlsx
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>eDUAAB+LCAAAAAAAAAPtW1tvG8cV/isLPiVAqdklKeuS8QYUKSlEeRFEKrbyYgx3h9JWy112L5L4lj4UAdILUDQJkF6Rh6JBgKZ+SAvXLtr/Eliy+9S/0DMze5ldLi2u7KItKsOAd85lLmfOnPOd4Ri/ezm1lXPq+Zbr3K9oa2pFoY7hmpZzcr8SBpOqdq/yro53Lw1qHxCPTGkAwgpoOf72pW/dr5wGwWwboYuLi7WL+prrnaCaqmroYa87NE7plFQtxw+IY9BKomXerFXRccuc9mhATBIQoXm/0hl21lrUMtpA6xGHnFBvbSf0LYf6/q4TWIFFfabpURLQVrv3vliYXlu7t6ZhtEBPJXdCyzaFXEZS0CM5GJaOrCnVa2pNrWq1qlofaep2/d72urq2tVn7IFZMBHGX+MGQeueWwQnDgExnXF2rqXVNrd9bVzEqFIK+UgPoeGCbh/Tc8qnZorbtl7IIijawaQSw6nLGhOlJulFHt5/CvkdmpyMrsGlZ9T3XowYY6lZj9+nFwIvsN5p1gTs6tbxg3ibz0n0d+dQbzJg1yqnquO06QdOmXnA0g02lJuw5MPTACylGS5ipUtvyDfi2nJCa+oTYvqyUYeIHrnfmz4hB+3BgEevjwrFdYoJnBZYfWEY66AIDH3juDHqEwXdc29yDXiPhAkbSc8cBE7Nhd1z3LJ1dERNzH+DeAHs6JUEsvkDHw1P3YuDY82E49g3PGlOzvRNLF/IwO3mRdiv0A3cKs0hJWNAkyhz+wEnLk3GbGtaU2Ac2GNHX69BLhoCbYeBOrKDl2uHU8eM55aj4AaxoRC+TFSZtPIDNdZjRXafjxPLCzIWsrMKhe5GMucjgRpDITd+It3uRkRduAy3evkUO3xG2yj3LhkQg74VEzXrF8JTSoNAlBAezmLfHUou+M2djYpRSMHgmeDdQdZYgqvzvSFW3+V8YOWHjXceM5DQenOuyXMzE/XA6GMMJPudr0jXg5UgYVmHv2MQ5A+oDKzjtN+PZF3CwWPNS+UUehrM6s8mckxO7yDTccQw7NKkIAR1nwp2SzU1s41I2XiB14VTrmDjz0XwGIde3tgP4uF+BJLztBx6k+YpuuKETeHMWKzCKRG/S8cOxwwcg9so6E49+PwR0Md8LHaPlmquPZgrrHDlWsPoM3dATAXB1FW49FgtDv01ZVOFhfmV9o8yafK+U+NShU9exjNWtDUZmszdvsRA/PlUra1BxvlaWtyGTi0THzvrKah5AQ0htpYZp+r5rWNxZo+NhSvpoyZFp0wkJbYBlASTVkyTa5sm46Z/lZWQSPvLsOObpDPT6gHoNc7pmAFxgyG7NcKeMgABsPhhiJMszzGPQXeekS5yTEFBFElfy9CTisow48ojjs+UkICIXfIuFcBynBLjRRfAahNwRRPBygYtRTg6P6HTmesTugWGsvcjtIoQE4KNHgtOoBdnMpkZsZJSqJlrZmcUTv0mMpyWxDHbgozCZI3IhthaBr1OZlIbZKntwLO0Wsa2xJ6JqnLyLeLBhKRyM4y9bXEloGO8B1FiQb79L5wx4p42Izl1WixnCgVkg1YeHjc3aurq+DliGtTFf8b57HiiAeimgQqWqjMil8o7ScUzr3DJDYsMnOB+sTJgnSkGlNGUdvBfHdz6FJswzS8kKALI4sSB9LAomnFRBP6bEs+eSoFhi1zVA7vqTv189/dX1J3+++uHvqi++/OnVx1/886+/eP7kq+dPnwqqWKOQxiMytimf0Whnc1OtN8DBEhJmVkUcBZuhEXDa8TEHv0kbR8Uab7R2O6397g4PJAkxVhe5BLE6cO6GaXMoVsEH4nuJYhcQIvooDkxRO8OVcpPO6rJzmpWW+csUhS1ePPv9i2d/WKodGSwFWdrW1iYvfG/GYNqCXILBupngz4QbVXW9WqtJwjkZfCgif2KnjqlD/bylahuqlgRxM/HiIqE8K+ppRE5QTk+QWgIXJS4gt2Mm9/wR9YOELc6C1Ih89E8/evnHTzNSkXUjSrYXmBzHL2wwFDd41/3DkTIcHB22dpXR7pD5ScqT5ETnrxCORk8OVMapHAdO+XcUyOqQxZQKFD8VxZ0olBinyhyOonQQM85WRBUD3bLL/Cz3PTeciR2RFFJqgWQSTgo1CoIN53F7LkSdlFUgLuZ69ZdvihSihbRTJKsf9naUqZP4JafhDEeQJH50aj//2/MnH7Hg9vhnV09+kOkhGie5AQA/h9MkNxO3h5AXJZocBT8YcmOeqY+kxBIRWQV14FpO4OtagxdPUQuDqsZ64//izhRyHe+Y2wvoOQp+j/i7l0F0sPU+RlkCzHNGIM26aZmZEEQMT+36j1//5vqX31x/9vjlR19dffzl1Y8/e/Hsty+//kKcuutPH1//5OsoyucTAZ8LK14F+lP4VYihsNOosKStfPvhzxXHDRTAGkrII9K3H34udcYmylFJ2jNguWQi2SksiMrKTE+RppLMIaOXqIjM32IprJ5IREnMnVlGOsgHVdYVO3ec8VZnVA19qrgAo96GlWSFU+VV9SIVkVIPNtSaVou4YjZsCWPiS6bft90xwIiYwe8aciIZrVcrpLJ8vP3uYKfZTUXEJAaeST3mhuIDd/wYTcbuJVGACyjPCG12JbQgtsjC8ZcUulB0tzJpmizk6WrR/UVGArdCzxMoyInu5IfhDJBvfAO3nM9vJSWw2xfAVIa/abvTzvKhLXEh+WXZjMD5PBxFLBGaOj67xhHYtc9MkzaBl7nJBHNE1+4CXQGSpB5isWbX81yvMOCknFisB7AZoghKLZ7IIDakgNhmulcxIQ5yd1D7DmrfQe07qH0Htf/foHawFGoHy6F2gWJ5hK0tR9jaoy26QUhjQ61u1Bq02jABIRCttlVd1zbJFmlMGutbxn8AfMebVfAjw9I5rJ6VbrPvr3LFgqrpTUfS187Zrw6mNwS5m2s29Iodu6uk7iqpN11JaUklFSNxX9z1534BgGBk6kf9zuhRr9nvHBx1m6POgNUKDEFICU2IHHVHnYNuZ/fwrZFn2TYw3lFEtRMoxLaVKfuNYWZbUEm8zX6NkRJi+jxJzCNpR8AdDvwJDXpJBzF+f5/YIVgbpiS+OCzVW4P+cNTsQx6PfifKdVk0ApnNbJ4ilg5yeLRbbhgkr0rg13wVIlGTrUhDY9OzglPowDIGMyp+tPAhhi7IJaqs2kuVlCItXhDm6+koHrlCgd62vkKi2kCZgItyuSXfjkOfTEdS2YKkSgQV1R0oU2ig1y4q0NJiYDknnmmamQpvDAoSV6HcshKgUPjmEiCP2zlldVSPMhkOLaL2lISWAnK0gLpRMQ5eQl5QSdy/kFjkVQk6KSTGA0hoEQlwghaxJXozt7RIBmTqa2HC1WECkghoMW1nSSiTZ1E+p8oEJCVAVJDucjSUzVcoikrof+12Lxr7v/l6D93mQg+9uXs7KbG0rcnkGDDkw/TxVEwQM057YQ2RUxdQCZJgi+Qb0QurN+sstwI3Rf3c3SiXvVFevcD+t1w2o/RFSAqR2tQGRFf23XGs3XPPb60LblFWteMPbDOyc7lHLYlZ0g7kV+DMh8pOpul5ADHYs9HSz7a7lnPWKbd6vb41bjRqtQ1tMtncMDfG2lhbH4/pRmNMahvrUCqKTlk1wLqYAhBkL4TKDaKxACWrp6+5DolzUrI3YWCuyF48gaX4WY1q36SN9yzPDx4yFBB9CcpxQjkWyPGhXhPw8KFoH+v1dUEAASQPhjKzjkNPIP7DgGt3ralV8lWUGsenbCfgBrOZAIJlN7TV7vXpZYCR1AOAhvH3AJ+IZ4RlehOnCiqgRD/uaxiOS3eHYuUD4DPHup32rgn48vba/Pm9Zb/GBDiqvG0XHce3Tk6DsvtK6Ngw1M1GdWJsqtUGHNMq2apBU62TjXpDo5P6Fns3HXUOicOiFyUHYenG8kNil9dDuf8/pf8Lvp/JNXg1AAA=</t>
+          <t>AjYAAB+LCAAAAAAAAAPtW1lz2zgS/issP2UeZJCSLUtehFM67CxndbgseZLsSwoiIQlrHloedvTvtwHwACkqERXPvKxTrorQB45Go/trCMK/f/dc7YWGEQv8jxfGpX6hUd8OHOZvPl4k8bpldC9+N/Hdd5u6DyQkHo1BWAMtP7r9HrGPF9s43t0i9Pr6evnauQzCDWrruoG+TCcLe0s90mJ+FBPfphe5lvNzrQsTjxxvSmPikJhIzY8X1sK6HFFmj4E2JT7Z0PBymETMp1F058csZjTimiElMR2Np3/KhZnty+6lgdEBvZAcJsx1pFxJUtJTORiWLplHzbbe1lv6TcvoLPXr22v461z2jO6/M8VcEE9IFC9o+MJsQVjExNsJdf3G6OjX8K+DUa0Q9FUYwMRz13mkLyyizoi6btTIIijdwIEdw6qbGVPHSNFNOzp/Cp9CstsuWezSpur3QUhtMNRZY8/o6zxM7bfcTYC73LIw3o/JvnFfTxEN5ztujWaqJh4HfjxwaRg/7WBTqQN7DgwzDhOK0RFmoTRmkQ2fmZ9Qx1wTN1KVSkz8OQifox2x6QwOLOJ9vPpuQBzwrJhFMbOLQQ8Y+CEMdtAjDD4MXOceek2Faxh5z5YPJubDDoPguZhdHRMLHxDeAHvqkTgTP6DjxTZ4nfvufpGsIjtkK+qMh5l0LQ/zk5dqj5IoDjyYRUHCkqZQplO0h39w2KocPKY284j74IIdIxOOaZmAB0kcrFk8CtzE86NsWhUq/gyLWtLv+SLzNp7D/vrc7oFv+Zm8tHQtq6zwGLzmYx4yhB0U8iCysx0/ZFSFx0DLdvCQIzaFr/KeuZAL1O1QqGXHWGwpjWu9QnIwD3v3PLuYwz0fE6OCgsE5wcGBavIc0RJ/S12/FX8wcs7Gd76Tyhl6y2i3OqpcxsSzxJuv4BC/iDWZBvAqJAyrcIcu8Z+B+pnF29kgm30NB8s1H5U/5GE4rjuX7AU5t4tKw5Zvu4lDZRSw/LVwSj43uY1H2fiANIGDbWLi75f7HUTdiN3G8OHjBeTh2ygOIdNfmHaQ+HG45+ECo1T0ZzpRsvLFAMQ9WWcd0v8mADD294lvjwLn9NEcaZ0nn8WnzzBIQhkDT1cR1uPhMInGlAcWEelP1rebrCkKG4l7PvUCn9mnWxuMzGfvnLGQKDtVJ2tQeb5Olnchmctcx8/6yWohoEPIbo2GGURRYDPhrOnxcBR9dOTIjOmaJC4gsxjy6iaPtlUyHkTPVRmVhJ9CN4t5Jse9EQBf2/EubUAMHNxd2oHHCQjw5ucFRqo8hz02vfM3E+JvEgAWeVyp0vOIy5PiMiR+xJeT44hK8K0XwlmckvjGlMFrnghHkMErAC5GFTm8pN4uCIk7BcOw+9TtUpAE+GNK4m3agmzmUjszMipUc63yzLKJ/0xMpCW5DH7g0zBZIQohvhYJsQuZgob5KqdwLN0RcdkqlFE1S951PNiwAhFm8ZcvriE6zPYAyizIt/+ie469i0ZKFy5rZAzpwDyQmovHq95N76rTBizD21is+MN49BvgNicRRrvVJgzi75pRR5tBiAN7ap9IdKtNp8PlE6RBYaQ0EZ2hr2ri+yzWi+lMwWVLhDIfQMaGQSY5kMsZhbw5Bei5dfeKpFztJLBB8AOcvGCnPTKXRXLuzxAY+Dy1gUs8bURYWFqxVMNLsnKpmNpy2Ov1+jfgdDkJc0sjAY65LQTNGs8EKM4JOC3iRGN0Z40eHqciuuTETF8mGMTrw32QFM2FXI8YSWwwyvxCipijLFql7RJXSVimWhCUdVSpY+rSJIohj3aRGq+E0bonYrQ2x2h6LUablJJDWnBDp31FuCKDH2VmyE1mQUF/fWW0O7rezoO8k/t3nVCVlfa0JBtU0ZOkkcRNqTvwk1e0M6Y4DZbvBHDeGcll5CFRGtKS9YKplVNKjRDMVIAdPjLKGmKIMYO6OYbQGVPtE/UpP7PBWpszVyO+w48F2KYQV1TloFz/Wehrf0CKF/pT5u/Js+YQXxyrYeIxtZN0tvnpVD3u8OyW/LGOKrv7oWJ1xE9hkOwO4k5BrZGsjUCH3IqmsNnh1Apejbyc7DCBHEr8OqV0NeMC8prTmQbxSou3uY8KMq4yJVURkX39kcREyDyyVVLqIh0rvzEAp4ejpTbzMwCxMM1KFQr+vBBWfda/KVkoJfJy6yFgfhyZvStRaaUtDKoG7038jy0PEqPoWNgN6BUK/ieJ7r7H6Sk3IfaWCTDPHQE3DYqaNCfI4F7YFprU1azx5eNwqBtXt9qRPKGVkkmaEKo5Q8xOfDro8UdZU/ugxmi1c74UoVmMlM1Pu4MTvOGnrSqh6phCaq/MoaSQy0rgMIJs17vJJdJ8F+yYXfS+EDEgH73CLaSzkRci5iiCqYzMrw+9br9jpFw5HgdHKxLRmkgIy6AeSzwtkxH3EhXpUgcn6xZqMoTPxvPZ3cIaFFJydvMQAh/3SfkBW1GGQzNfUyjABXxow/mO6aHYIQtnn5SAhtJbmfXA4Xfxpl5381GSwKMkDCVq8tML/UWyA8ycX7wcFxB3mgpOnklMqyLnom2Ny3xoK1zIi2U2Jwi+CE0pS4YpK+I3QBL2zrhtiibwSvegYI/00l6CsBcG+4B45LkLwyCsDT8FJxObAuKGmIIKk+cyiA8p0blTbFZGyELeO0p/R+nvKP0dpb+j9HeUXoPSBQr36yB6xvkb8LlxHJ8b326MFdXbXb111TXs1tXa6Lf6xOm0+lc3VO/0+l3KL6T/duiebVzN9xlH53By5jrLBX7klvVF11sH1zdK8D+OsqdEv5/Xf+gH+/delb1XZX9pVWbkVVkG6iP5jUPlewiIU475NLOW36aDmfXwNBksrTkvOzjYULKbFHmaLK2HiXX3+GEZMtcFxj80WTjFGnFdzePfdOxcBkXJb/w7ISU7Fu+k5DzydloDQCDY0Hiad5CVAn8SN4FtgCnJTwLNmqP5bLEczJawL/LbqkqXdSOQ3c4V2ePoII9Pd82GQeqqJOqtFjQKNd+KImoOQhZvoQNmz3dUfnUCmOZQLlflhWOhpNVpidqyWpunwSmQCvTcUg3JagWVAjGqpJ1qO4uDKh0pZQ9SChhUV66gUnmCfrkUQUeLh+OcbKZFxqq9fahJaLVyx6qFWuGfVwtViC8opxcAqJTz0CG2L0joKFxHBwAc1YPiI+QDldz9a4l1XpUDl1piNoACJJHELegQfaK3uf5FKlbTfwkuno4ZkEJAhxm6TEKlFIuq6VQlICUzopo8WKGhcspCaVRC7zeFb35TiM65G0RvdwWoJJYxW6+/AtT9UjzhyghyxkUvvCFz6gEqQQpsUXwjfef1ts5yFrip6+f/y+fe5Hb69OL7L7m4RsXDlAIjjakLkK7pC+hMexq8nK0LftFU1YrmrpPaudnbmtwsRQfqe3TuQ00nMwhDwBj89WrjB+QT5j9bzVZvrozuzY2j9/r66srpt/u207vqr9dw7jrX3TX/DYHolJcDvAsPkCB/qNRsEINHKFW9eFT2SPxNw96kgYUif3gFlpI3naDEH11lbXzPwij+wmFA+klSvuaUrxI6fjHbEh9+ke2vZu9aEkAAqYOh0qyz2BPLny4E7oR5rOHjLD2LT+VOwA12O4kEm27oaDyd0e8xRkoPgBpW/wGAIl8zNulNnioogXL9rK9FsmrcHcqUH4DPHes87TsHAOb52uKHAMz9hQkIWHluF5Yfsc02brqvRq/bvrnu3LTW3d6qddVv661er9dtdXmEJ129S20OeLPOIXEw+tpwEJ5uWJQQt7keqvySy/wf2W+E7QI2AAA=</t>
         </r>
       </text>
     </comment>
@@ -39,12 +39,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="yyyy"/>
+    <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="164" formatCode="yyyy"/>
+    <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +63,23 @@
     </font>
     <font>
       <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -96,20 +113,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,34 +442,34 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Govt Revenue - Tax ; Individual Income</t>
+          <t>(DC)Production: Liquefied Natural Gas: MMBTU</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>Govt Revenue - Tax ; Individual Income</t>
+          <t>(DC)Production: Liquefied Natural Gas: MMBTU</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Region</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Indonesia</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>Subnational</t>
         </is>
@@ -454,105 +478,105 @@
       <c r="C3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Annual, ending "Dec" of each year</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Annual, ending "Dec" of each year</t>
+          <t>Monthly</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>RMB mn</t>
+          <t>MN BTU th</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>RMB tn</t>
+          <t>BTU tn</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>NRT SOURCE TEST</t>
+          <t>Directorate General of Oil and Gas</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>NRT SOURCE TEST</t>
+          <t>Directorate General of Oil and Gas</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Discontinued</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Discontinued</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>Series ID</t>
         </is>
       </c>
-      <c r="B8" s="3">
-        <v>310901701</v>
-      </c>
-      <c r="C8" s="3">
-        <v>310901701</v>
+      <c r="B8" s="5">
+        <v>254123002</v>
+      </c>
+      <c r="C8" s="5">
+        <v>254123002</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>SR Code</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>SR4825055</t>
+          <t>SR4878432</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>SR4825055</t>
+          <t>SR4878432</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Mnemonic</t>
         </is>
@@ -561,7 +585,7 @@
       <c r="C10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>Function Description</t>
         </is>
@@ -574,300 +598,850 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>First Obs. Date</t>
         </is>
       </c>
-      <c r="B12" s="4">
-        <v>36130</v>
-      </c>
-      <c r="C12" s="4">
-        <v>36130</v>
+      <c r="B12" s="6">
+        <v>38718</v>
+      </c>
+      <c r="C12" s="6">
+        <v>38718</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Last Obs. Date</t>
         </is>
       </c>
-      <c r="B13" s="4">
-        <v>40878</v>
-      </c>
-      <c r="C13" s="4">
-        <v>40878</v>
+      <c r="B13" s="6">
+        <v>41244</v>
+      </c>
+      <c r="C13" s="6">
+        <v>41244</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>Last Update Time</t>
         </is>
       </c>
-      <c r="B14" s="5">
-        <v>41781</v>
-      </c>
-      <c r="C14" s="5">
-        <v>41781</v>
+      <c r="B14" s="7">
+        <v>43839</v>
+      </c>
+      <c r="C14" s="7">
+        <v>43839</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="inlineStr">
+      <c r="A15" s="8" t="inlineStr">
         <is>
           <t>Series remarks</t>
         </is>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>Suggestions</t>
         </is>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>Mean</t>
         </is>
       </c>
       <c r="B17" s="2">
-        <v>1231.927</v>
+        <v>93374.63980350002</v>
       </c>
       <c r="C17" s="2">
-        <v>0.001231927</v>
+        <v>93.37463980350003</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>Variance</t>
         </is>
       </c>
       <c r="B18" s="2">
-        <v>196242.7157566667</v>
+        <v>67588679.72409233</v>
       </c>
       <c r="C18" s="2">
-        <v>1.962427157566666e-07</v>
+        <v>67.58867972409232</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>Standard Deviation</t>
         </is>
       </c>
       <c r="B19" s="2">
-        <v>442.9929071177852</v>
+        <v>8221.233467314521</v>
       </c>
       <c r="C19" s="2">
-        <v>0.0004429929071177852</v>
+        <v>8.221233467314519</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>Skewness</t>
         </is>
       </c>
       <c r="B20" s="2">
-        <v>0.4639651794892382</v>
+        <v>0.5786993566761636</v>
       </c>
       <c r="C20" s="2">
-        <v>0.4639651794892365</v>
+        <v>0.5786993566761582</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>Kurtosis</t>
         </is>
       </c>
       <c r="B21" s="2">
-        <v>-0.8990137168045287</v>
+        <v>-0.2909755924600841</v>
       </c>
       <c r="C21" s="2">
-        <v>-0.8990137168045309</v>
+        <v>-0.2909755924600885</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>Coefficient Variation</t>
         </is>
       </c>
       <c r="B22" s="2">
-        <v>0.3595934719490564</v>
+        <v>0.08804567797654154</v>
       </c>
       <c r="C22" s="2">
-        <v>0.3595934719490564</v>
+        <v>0.08804567797654152</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>Min</t>
         </is>
       </c>
       <c r="B23" s="2">
-        <v>727.63</v>
+        <v>80465.44901</v>
       </c>
       <c r="C23" s="2">
-        <v>0.0007276300000000001</v>
+        <v>80.46544901</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
       <c r="B24" s="2">
-        <v>2026.83</v>
+        <v>112482.41951</v>
       </c>
       <c r="C24" s="2">
-        <v>0.00202683</v>
+        <v>112.48241951</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>Median</t>
         </is>
       </c>
       <c r="B25" s="2">
-        <v>1181.145</v>
+        <v>92555.497445</v>
       </c>
       <c r="C25" s="2">
-        <v>0.001181145</v>
+        <v>92.555497445</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
+      <c r="A26" s="3" t="inlineStr">
         <is>
           <t>No. of Obs</t>
         </is>
       </c>
       <c r="B26" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="7">
-        <v>37226</v>
-      </c>
-      <c r="B27" s="8">
-        <v>791.02</v>
-      </c>
-      <c r="C27" s="8">
-        <v>0.00079102</v>
+      <c r="A27" s="10">
+        <v>38718</v>
+      </c>
+      <c r="B27" s="11">
+        <v>102584.6417</v>
+      </c>
+      <c r="C27" s="11">
+        <v>102.5846417</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="7">
-        <v>37591</v>
-      </c>
-      <c r="B28" s="8">
-        <v>767.73</v>
-      </c>
-      <c r="C28" s="8">
-        <v>0.00076773</v>
+      <c r="A28" s="10">
+        <v>38749</v>
+      </c>
+      <c r="B28" s="11">
+        <v>93467.54944</v>
+      </c>
+      <c r="C28" s="11">
+        <v>93.46754944</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="7">
-        <v>37956</v>
-      </c>
-      <c r="B29" s="8">
-        <v>727.63</v>
-      </c>
-      <c r="C29" s="8">
-        <v>0.0007276300000000001</v>
+      <c r="A29" s="10">
+        <v>38777</v>
+      </c>
+      <c r="B29" s="11">
+        <v>98607.01212</v>
+      </c>
+      <c r="C29" s="11">
+        <v>98.60701211999999</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="7">
-        <v>38322</v>
-      </c>
-      <c r="B30" s="8">
-        <v>922.91</v>
-      </c>
-      <c r="C30" s="8">
-        <v>0.00092291</v>
+      <c r="A30" s="10">
+        <v>38808</v>
+      </c>
+      <c r="B30" s="11">
+        <v>97395.64367</v>
+      </c>
+      <c r="C30" s="11">
+        <v>97.39564367</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="7">
-        <v>38687</v>
-      </c>
-      <c r="B31" s="8">
-        <v>1126.49</v>
-      </c>
-      <c r="C31" s="8">
-        <v>0.00112649</v>
+      <c r="A31" s="10">
+        <v>38838</v>
+      </c>
+      <c r="B31" s="11">
+        <v>92075.12437000001</v>
+      </c>
+      <c r="C31" s="11">
+        <v>92.07512437</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7">
+      <c r="A32" s="10">
+        <v>38869</v>
+      </c>
+      <c r="B32" s="11">
+        <v>95232.23819</v>
+      </c>
+      <c r="C32" s="11">
+        <v>95.23223819</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="10">
+        <v>38899</v>
+      </c>
+      <c r="B33" s="11">
+        <v>100047.7073</v>
+      </c>
+      <c r="C33" s="11">
+        <v>100.0477073</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="10">
+        <v>38930</v>
+      </c>
+      <c r="B34" s="11">
+        <v>95307.24011</v>
+      </c>
+      <c r="C34" s="11">
+        <v>95.30724011</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="10">
+        <v>38961</v>
+      </c>
+      <c r="B35" s="11">
+        <v>89917.83798</v>
+      </c>
+      <c r="C35" s="11">
+        <v>89.91783798</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="10">
+        <v>38991</v>
+      </c>
+      <c r="B36" s="11">
+        <v>98395.83232</v>
+      </c>
+      <c r="C36" s="11">
+        <v>98.39583232</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="10">
+        <v>39022</v>
+      </c>
+      <c r="B37" s="11">
+        <v>98170.13428</v>
+      </c>
+      <c r="C37" s="11">
+        <v>98.17013428</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="10">
         <v>39052</v>
       </c>
-      <c r="B32" s="8">
-        <v>1235.8</v>
-      </c>
-      <c r="C32" s="8">
-        <v>0.0012358</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="7">
+      <c r="B38" s="11">
+        <v>98568.94826</v>
+      </c>
+      <c r="C38" s="11">
+        <v>98.56894826</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="10">
+        <v>39083</v>
+      </c>
+      <c r="B39" s="11">
+        <v>95524.24980000001</v>
+      </c>
+      <c r="C39" s="11">
+        <v>95.52424980000001</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="10">
+        <v>39114</v>
+      </c>
+      <c r="B40" s="11">
+        <v>83617.02267999999</v>
+      </c>
+      <c r="C40" s="11">
+        <v>83.61702268000001</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="10">
+        <v>39142</v>
+      </c>
+      <c r="B41" s="11">
+        <v>98607.01212</v>
+      </c>
+      <c r="C41" s="11">
+        <v>98.60701211999999</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="10">
+        <v>39173</v>
+      </c>
+      <c r="B42" s="11">
+        <v>87313.59292</v>
+      </c>
+      <c r="C42" s="11">
+        <v>87.31359292</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="10">
+        <v>39203</v>
+      </c>
+      <c r="B43" s="11">
+        <v>89092.12278000001</v>
+      </c>
+      <c r="C43" s="11">
+        <v>89.09212278</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="10">
+        <v>39234</v>
+      </c>
+      <c r="B44" s="11">
+        <v>83580.49619999999</v>
+      </c>
+      <c r="C44" s="11">
+        <v>83.5804962</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="10">
+        <v>39264</v>
+      </c>
+      <c r="B45" s="11">
+        <v>89062.82719</v>
+      </c>
+      <c r="C45" s="11">
+        <v>89.06282718999999</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="10">
+        <v>39295</v>
+      </c>
+      <c r="B46" s="11">
+        <v>93159.99709999999</v>
+      </c>
+      <c r="C46" s="11">
+        <v>93.1599971</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="10">
+        <v>39326</v>
+      </c>
+      <c r="B47" s="11">
+        <v>86589.08224</v>
+      </c>
+      <c r="C47" s="11">
+        <v>86.58908224</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="10">
+        <v>39356</v>
+      </c>
+      <c r="B48" s="11">
+        <v>93035.87052</v>
+      </c>
+      <c r="C48" s="11">
+        <v>93.03587052</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="10">
+        <v>39387</v>
+      </c>
+      <c r="B49" s="11">
+        <v>91356.15084</v>
+      </c>
+      <c r="C49" s="11">
+        <v>91.35615084</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="10">
         <v>39417</v>
       </c>
-      <c r="B33" s="8">
-        <v>1482.71</v>
-      </c>
-      <c r="C33" s="8">
-        <v>0.00148271</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="7">
+      <c r="B50" s="11">
+        <v>95688.73797</v>
+      </c>
+      <c r="C50" s="11">
+        <v>95.68873797000001</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="10">
+        <v>39448</v>
+      </c>
+      <c r="B51" s="11">
+        <v>96328.9469</v>
+      </c>
+      <c r="C51" s="11">
+        <v>96.32894690000001</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="10">
+        <v>39479</v>
+      </c>
+      <c r="B52" s="11">
+        <v>98953.75303000001</v>
+      </c>
+      <c r="C52" s="11">
+        <v>98.95375303</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="10">
+        <v>39508</v>
+      </c>
+      <c r="B53" s="11">
+        <v>90097.77222</v>
+      </c>
+      <c r="C53" s="11">
+        <v>90.09777222</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="10">
+        <v>39539</v>
+      </c>
+      <c r="B54" s="11">
+        <v>82155.80794</v>
+      </c>
+      <c r="C54" s="11">
+        <v>82.15580794</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="10">
+        <v>39569</v>
+      </c>
+      <c r="B55" s="11">
+        <v>90612.21428</v>
+      </c>
+      <c r="C55" s="11">
+        <v>90.61221428</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="10">
+        <v>39600</v>
+      </c>
+      <c r="B56" s="11">
+        <v>83468.69955999999</v>
+      </c>
+      <c r="C56" s="11">
+        <v>83.46869956</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="10">
+        <v>39630</v>
+      </c>
+      <c r="B57" s="11">
+        <v>85880.46527</v>
+      </c>
+      <c r="C57" s="11">
+        <v>85.88046527</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="10">
+        <v>39661</v>
+      </c>
+      <c r="B58" s="11">
+        <v>88071.95206</v>
+      </c>
+      <c r="C58" s="11">
+        <v>88.07195206</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="10">
+        <v>39692</v>
+      </c>
+      <c r="B59" s="11">
+        <v>86411.6581</v>
+      </c>
+      <c r="C59" s="11">
+        <v>86.4116581</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="10">
+        <v>39722</v>
+      </c>
+      <c r="B60" s="11">
+        <v>85863.46357000001</v>
+      </c>
+      <c r="C60" s="11">
+        <v>85.86346356999999</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="10">
+        <v>39753</v>
+      </c>
+      <c r="B61" s="11">
+        <v>87911.15601999999</v>
+      </c>
+      <c r="C61" s="11">
+        <v>87.91115602000001</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="10">
         <v>39783</v>
       </c>
-      <c r="B34" s="8">
-        <v>1598.61</v>
-      </c>
-      <c r="C34" s="8">
-        <v>0.00159861</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="7">
+      <c r="B62" s="11">
+        <v>91789.90822</v>
+      </c>
+      <c r="C62" s="11">
+        <v>91.78990822</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="10">
+        <v>39814</v>
+      </c>
+      <c r="B63" s="11">
+        <v>92030.37178</v>
+      </c>
+      <c r="C63" s="11">
+        <v>92.03037178</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="10">
+        <v>39845</v>
+      </c>
+      <c r="B64" s="11">
+        <v>80465.44901</v>
+      </c>
+      <c r="C64" s="11">
+        <v>80.46544901</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="10">
+        <v>39873</v>
+      </c>
+      <c r="B65" s="11">
+        <v>81558.51788</v>
+      </c>
+      <c r="C65" s="11">
+        <v>81.55851788</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="10">
+        <v>39904</v>
+      </c>
+      <c r="B66" s="11">
+        <v>81657.46119</v>
+      </c>
+      <c r="C66" s="11">
+        <v>81.65746119000001</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="10">
+        <v>39934</v>
+      </c>
+      <c r="B67" s="11">
+        <v>83308.78529</v>
+      </c>
+      <c r="C67" s="11">
+        <v>83.30878529</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="10">
+        <v>39965</v>
+      </c>
+      <c r="B68" s="11">
+        <v>84839.49019</v>
+      </c>
+      <c r="C68" s="11">
+        <v>84.83949019000001</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="10">
+        <v>39995</v>
+      </c>
+      <c r="B69" s="11">
+        <v>90413.66712</v>
+      </c>
+      <c r="C69" s="11">
+        <v>90.41366712</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="10">
+        <v>40026</v>
+      </c>
+      <c r="B70" s="11">
+        <v>85945.56743</v>
+      </c>
+      <c r="C70" s="11">
+        <v>85.94556743</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="10">
+        <v>40057</v>
+      </c>
+      <c r="B71" s="11">
+        <v>84672.43913</v>
+      </c>
+      <c r="C71" s="11">
+        <v>84.67243913</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="10">
+        <v>40087</v>
+      </c>
+      <c r="B72" s="11">
+        <v>85370.54401</v>
+      </c>
+      <c r="C72" s="11">
+        <v>85.37054401</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="10">
+        <v>40118</v>
+      </c>
+      <c r="B73" s="11">
+        <v>86578.4388</v>
+      </c>
+      <c r="C73" s="11">
+        <v>86.5784388</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="10">
         <v>40148</v>
       </c>
-      <c r="B35" s="8">
-        <v>1639.54</v>
-      </c>
-      <c r="C35" s="8">
-        <v>0.00163954</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="7">
+      <c r="B74" s="11">
+        <v>97156.65667</v>
+      </c>
+      <c r="C74" s="11">
+        <v>97.15665667</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="10">
+        <v>40179</v>
+      </c>
+      <c r="B75" s="11">
+        <v>97289.10838000001</v>
+      </c>
+      <c r="C75" s="11">
+        <v>97.28910838</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="10">
+        <v>40210</v>
+      </c>
+      <c r="B76" s="11">
+        <v>94671.4368</v>
+      </c>
+      <c r="C76" s="11">
+        <v>94.6714368</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="10">
+        <v>40238</v>
+      </c>
+      <c r="B77" s="11">
+        <v>110403.24314</v>
+      </c>
+      <c r="C77" s="11">
+        <v>110.40324314</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="10">
+        <v>40269</v>
+      </c>
+      <c r="B78" s="11">
+        <v>99640.66865000001</v>
+      </c>
+      <c r="C78" s="11">
+        <v>99.64066864999999</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="10">
+        <v>40299</v>
+      </c>
+      <c r="B79" s="11">
+        <v>110055.8161</v>
+      </c>
+      <c r="C79" s="11">
+        <v>110.0558161</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="10">
+        <v>40330</v>
+      </c>
+      <c r="B80" s="11">
+        <v>94930.02968000001</v>
+      </c>
+      <c r="C80" s="11">
+        <v>94.93002968</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="10">
+        <v>40360</v>
+      </c>
+      <c r="B81" s="11">
+        <v>111079.15933</v>
+      </c>
+      <c r="C81" s="11">
+        <v>111.07915933</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="10">
+        <v>40391</v>
+      </c>
+      <c r="B82" s="11">
+        <v>112482.41951</v>
+      </c>
+      <c r="C82" s="11">
+        <v>112.48241951</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="10">
+        <v>40422</v>
+      </c>
+      <c r="B83" s="11">
+        <v>105503.17811</v>
+      </c>
+      <c r="C83" s="11">
+        <v>105.50317811</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="10">
+        <v>40452</v>
+      </c>
+      <c r="B84" s="11">
+        <v>107765.02529</v>
+      </c>
+      <c r="C84" s="11">
+        <v>107.76502529</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="10">
+        <v>40483</v>
+      </c>
+      <c r="B85" s="11">
+        <v>101364.03607</v>
+      </c>
+      <c r="C85" s="11">
+        <v>101.36403607</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="10">
         <v>40513</v>
       </c>
-      <c r="B36" s="8">
-        <v>2026.83</v>
-      </c>
-      <c r="C36" s="8">
-        <v>0.00202683</v>
+      <c r="B86" s="11">
+        <v>109354.00938</v>
+      </c>
+      <c r="C86" s="11">
+        <v>109.35400938</v>
       </c>
     </row>
   </sheetData>
@@ -887,23 +1461,23 @@
         <MetadataSeries>
           <InitRow>1</InitRow>
           <InitCol>2</InitCol>
-          <EndRow>36</EndRow>
+          <EndRow>86</EndRow>
           <EndCol>2</EndCol>
-          <Name>Govt Revenue - Tax ; Individual Income</Name>
-          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
-          <SeriesId>310901701</SeriesId>
-          <Code>SR4825055</Code>
+          <Name>(DC)Production: Liquefied Natural Gas: MMBTU</Name>
+          <DisplayName>(DC)Production: Liquefied Natural Gas: MMBTU</DisplayName>
+          <SeriesId>254123002</SeriesId>
+          <Code>SR4878432</Code>
           <Order>0</Order>
         </MetadataSeries>
         <MetadataSeries>
           <InitRow>1</InitRow>
           <InitCol>3</InitCol>
-          <EndRow>36</EndRow>
+          <EndRow>86</EndRow>
           <EndCol>3</EndCol>
-          <Name>Govt Revenue - Tax ; Individual Income</Name>
-          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
-          <SeriesId>310901701</SeriesId>
-          <Code>SR4825055</Code>
+          <Name>(DC)Production: Liquefied Natural Gas: MMBTU</Name>
+          <DisplayName>(DC)Production: Liquefied Natural Gas: MMBTU</DisplayName>
+          <SeriesId>254123002</SeriesId>
+          <Code>SR4878432</Code>
           <Order>1</Order>
         </MetadataSeries>
       </MetaDataSeries>
@@ -913,7 +1487,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7005B8C1-36B6-46F7-B439-1C11904C04DE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5EB7C63-87FB-47C3-BC80-835FA405D5AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
   </ds:schemaRefs>
